--- a/Registro proyecto.xlsx
+++ b/Registro proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acarr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{047A12C4-24EA-4AAE-B0D6-8FE58671F461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB49261-E2E8-4514-BE45-BBF029A8F729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1210,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="12"/>
       <c r="J29" s="14" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
